--- a/专利检索.xlsx
+++ b/专利检索.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\专利\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4371A36-2F91-45FB-9721-94731CFE37A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAD0F54-C44F-4B9D-94A0-9790F15DC45A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关键词：遍历 and 路径 and 权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>专利名称：一种自动化测试方法及系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,6 +56,10 @@
   </si>
   <si>
     <t>专利名称：一种应用页面的遍历方法和装置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键词：遍历 and 路径 and 权重 and 调用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -252,15 +252,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>499261</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:colOff>510467</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>90207</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -283,8 +283,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11677650" y="4819650"/>
-          <a:ext cx="5299861" cy="1381125"/>
+          <a:off x="11654118" y="20607619"/>
+          <a:ext cx="5284173" cy="1401294"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1013,6 +1013,50 @@
         <a:xfrm>
           <a:off x="17335500" y="23067819"/>
           <a:ext cx="4849091" cy="3500800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>486081</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7455D36-7B41-4499-A376-AD817D9BF510}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11676530" y="17604442"/>
+          <a:ext cx="5237375" cy="2767853"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1289,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5539ACC3-251D-4E21-B003-C954183B91EF}">
   <dimension ref="A2:Z177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M130" sqref="M130"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L106" sqref="L106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1317,7 +1361,7 @@
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>1</v>
@@ -1332,7 +1376,7 @@
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>1</v>
@@ -1354,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z82" s="1" t="s">
         <v>2</v>
@@ -1363,7 +1407,7 @@
     <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K112" s="1" t="s">
         <v>1</v>
